--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayan\IdeaProjects\DataDrivenApproch\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EE04CE-D23B-492F-AC6E-B5C2459042DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0D7BC8-2E65-4589-8058-C9D994C74497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateDeleteCustFunctionality" sheetId="5" r:id="rId1"/>
-    <sheet name="OpenAccountFunctionality" sheetId="2" r:id="rId2"/>
-    <sheet name="DepositWithdrawFunctionality" sheetId="4" r:id="rId3"/>
+    <sheet name="DifferentActions" sheetId="6" r:id="rId2"/>
+    <sheet name="OpenAccountFunctionality" sheetId="2" r:id="rId3"/>
+    <sheet name="DepositWithdrawFunctionality" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>TC Name</t>
   </si>
@@ -188,17 +189,28 @@
     <t>500</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Window_Authorization</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Upload_File_Using_Send_Keys</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,18 +525,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF64476-F0D0-4FE1-B4B7-91EF5B62511E}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -588,7 +600,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -615,6 +627,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C96219E-A347-4014-A376-320CB641BFF2}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADD4165-CA4F-4CA3-87F9-D6761A1072F6}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -624,12 +698,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="56.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="56.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -742,7 +816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B70980-4E13-4015-96B1-5FDB52014543}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -752,14 +826,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -868,7 +942,7 @@
         <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
         <v>45</v>

--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayan\IdeaProjects\DataDrivenApproch\src\test\resources\excel\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="58">
   <si>
     <t>TC Name</t>
   </si>
@@ -205,12 +205,16 @@
   </si>
   <si>
     <t>Upload_File_Using_Send_Keys</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,12 +535,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -614,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -636,11 +640,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -670,6 +674,9 @@
       <c r="C2" t="s">
         <v>55</v>
       </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
       <c r="E2" t="s">
         <v>45</v>
       </c>
@@ -677,6 +684,9 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -698,12 +708,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="56.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -826,14 +836,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayan\IdeaProjects\DataDrivenApproch\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0D7BC8-2E65-4589-8058-C9D994C74497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998670B0-8694-448B-BF44-17BDFD6E2F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateDeleteCustFunctionality" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>TC Name</t>
   </si>
@@ -174,18 +174,12 @@
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Skipp</t>
   </si>
   <si>
-    <t>560101</t>
-  </si>
-  <si>
     <t>500</t>
   </si>
   <si>
@@ -205,16 +199,12 @@
   </si>
   <si>
     <t>Upload_File_Using_Send_Keys</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,17 +520,17 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -583,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
@@ -600,11 +590,11 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -618,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -634,17 +624,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C96219E-A347-4014-A376-320CB641BFF2}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -652,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -666,16 +656,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -683,10 +673,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -703,17 +693,17 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="56.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="56.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -762,7 +752,7 @@
         <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>
@@ -788,7 +778,7 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
         <v>45</v>
@@ -814,10 +804,10 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -830,20 +820,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B70980-4E13-4015-96B1-5FDB52014543}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -895,7 +885,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
         <v>45</v>
@@ -914,7 +904,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
@@ -933,7 +923,7 @@
         <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -945,14 +935,14 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
         <v>45</v>

--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayan\IdeaProjects\DataDrivenApproch\src\test\resources\excel\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="56">
   <si>
     <t>TC Name</t>
   </si>
@@ -199,12 +199,16 @@
   </si>
   <si>
     <t>Upload_File_Using_Send_Keys</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,12 +529,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -594,7 +598,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -608,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -630,11 +634,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -698,12 +702,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="56.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -804,7 +808,7 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
         <v>45</v>
@@ -826,14 +830,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayan\IdeaProjects\DataDrivenApproch\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998670B0-8694-448B-BF44-17BDFD6E2F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6002ADCC-3924-4C29-8D6D-77C29622529E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>TC Name</t>
   </si>
@@ -177,12 +177,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Skipp</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -199,16 +193,12 @@
   </si>
   <si>
     <t>Upload_File_Using_Send_Keys</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,12 +519,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,11 +624,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -646,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -660,13 +650,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -677,7 +667,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
@@ -702,12 +692,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="56.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="56.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -825,19 +815,19 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -939,14 +929,14 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
         <v>45</v>

--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayan\IdeaProjects\DataDrivenApproch\src\test\resources\excel\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
   <si>
     <t>TC Name</t>
   </si>
@@ -193,12 +193,16 @@
   </si>
   <si>
     <t>Upload_File_Using_Send_Keys</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,12 +523,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,11 +628,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -692,12 +696,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="56.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -820,14 +824,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -936,7 +940,7 @@
         <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
         <v>45</v>
